--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1043.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1043.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.784327629287922</v>
+        <v>0.6454346776008606</v>
       </c>
       <c r="B1">
-        <v>3.12553514580076</v>
+        <v>1.767122507095337</v>
       </c>
       <c r="C1">
-        <v>2.44750614668129</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.277359008105976</v>
+        <v>1.935716390609741</v>
       </c>
       <c r="E1">
-        <v>1.91652843530126</v>
+        <v>1.137291669845581</v>
       </c>
     </row>
   </sheetData>
